--- a/results.xlsx
+++ b/results.xlsx
@@ -2035,6 +2035,7 @@
       <c r="A161">
         <v>160</v>
       </c>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:12">
       <c r="A162">
@@ -2213,6 +2214,7 @@
       <c r="A187">
         <v>186</v>
       </c>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
@@ -3669,6 +3671,7 @@
       <c r="A394">
         <v>393</v>
       </c>
+      <c r="B394" s="2"/>
     </row>
     <row r="395" spans="1:13">
       <c r="A395">
@@ -3809,6 +3812,7 @@
       <c r="A416">
         <v>415</v>
       </c>
+      <c r="B416" s="2"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417">
@@ -4634,6 +4638,7 @@
       <c r="A541">
         <v>540</v>
       </c>
+      <c r="B541" s="2"/>
     </row>
     <row r="542" spans="1:21">
       <c r="A542">
@@ -5770,6 +5775,7 @@
       <c r="A714">
         <v>713</v>
       </c>
+      <c r="B714" s="2"/>
     </row>
     <row r="715" spans="1:13">
       <c r="A715">
@@ -6541,6 +6547,7 @@
       <c r="A824">
         <v>823</v>
       </c>
+      <c r="B824" s="2"/>
     </row>
     <row r="825" spans="1:23">
       <c r="A825">
@@ -6588,6 +6595,7 @@
       <c r="A833">
         <v>832</v>
       </c>
+      <c r="B833" s="2"/>
     </row>
     <row r="834" spans="1:8">
       <c r="A834">
@@ -7746,7 +7754,7 @@
         <v>27</v>
       </c>
       <c r="B1002">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="C1002">
         <v>524</v>
@@ -7912,7 +7920,7 @@
         <v>29</v>
       </c>
       <c r="B1004">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C1004">
         <v>285</v>
@@ -7921,73 +7929,73 @@
         <v>4228</v>
       </c>
       <c r="E1004">
-        <v>4574</v>
+        <v>4573</v>
       </c>
       <c r="F1004">
-        <v>7104</v>
+        <v>7105</v>
       </c>
       <c r="G1004">
-        <v>14238</v>
+        <v>14237</v>
       </c>
       <c r="H1004">
-        <v>14686</v>
+        <v>14685</v>
       </c>
       <c r="I1004">
-        <v>22118</v>
+        <v>22120</v>
       </c>
       <c r="J1004">
-        <v>31762</v>
+        <v>31764</v>
       </c>
       <c r="K1004">
-        <v>36330</v>
+        <v>36334</v>
       </c>
       <c r="L1004">
-        <v>41318</v>
+        <v>41320</v>
       </c>
       <c r="M1004">
-        <v>42030</v>
+        <v>42032</v>
       </c>
       <c r="N1004">
-        <v>42566</v>
+        <v>42568</v>
       </c>
       <c r="O1004">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="P1004">
-        <v>51577</v>
+        <v>51579</v>
       </c>
       <c r="Q1004">
-        <v>56973</v>
+        <v>56977</v>
       </c>
       <c r="R1004">
-        <v>57684</v>
+        <v>57689</v>
       </c>
       <c r="S1004">
-        <v>63491</v>
+        <v>63499</v>
       </c>
       <c r="T1004">
-        <v>66632</v>
+        <v>66636</v>
       </c>
       <c r="U1004">
-        <v>69955</v>
+        <v>69960</v>
       </c>
       <c r="V1004">
-        <v>79756</v>
+        <v>79760</v>
       </c>
       <c r="W1004">
-        <v>95004</v>
+        <v>95008</v>
       </c>
       <c r="X1004">
-        <v>112885</v>
+        <v>112888</v>
       </c>
       <c r="Y1004">
-        <v>118035</v>
+        <v>118038</v>
       </c>
       <c r="Z1004">
-        <v>141325</v>
+        <v>141339</v>
       </c>
       <c r="AA1004">
-        <v>164727</v>
+        <v>164740</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -7995,7 +8003,7 @@
         <v>30</v>
       </c>
       <c r="B1005">
-        <v>19763</v>
+        <v>20128</v>
       </c>
       <c r="C1005">
         <v>15620</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1649,6 +1649,7 @@
       <c r="A112">
         <v>111</v>
       </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:17">
@@ -2998,6 +2999,7 @@
       <c r="A301">
         <v>300</v>
       </c>
+      <c r="B301" s="2"/>
     </row>
     <row r="302" spans="1:12">
       <c r="A302">
@@ -3567,6 +3569,7 @@
       <c r="A378">
         <v>377</v>
       </c>
+      <c r="B378" s="2"/>
     </row>
     <row r="379" spans="1:8">
       <c r="A379">
@@ -3694,6 +3697,7 @@
       <c r="A397">
         <v>396</v>
       </c>
+      <c r="B397" s="2"/>
       <c r="C397" s="2"/>
     </row>
     <row r="398" spans="1:13">
@@ -4150,6 +4154,7 @@
       <c r="A470">
         <v>469</v>
       </c>
+      <c r="B470" s="2"/>
       <c r="C470" s="2"/>
     </row>
     <row r="471" spans="1:6">
@@ -5804,6 +5809,7 @@
       <c r="A718">
         <v>717</v>
       </c>
+      <c r="B718" s="2"/>
       <c r="C718" s="2"/>
     </row>
     <row r="719" spans="1:13">
@@ -7544,6 +7550,7 @@
       <c r="A966">
         <v>965</v>
       </c>
+      <c r="B966" s="2"/>
     </row>
     <row r="967" spans="1:18">
       <c r="A967">
@@ -7754,7 +7761,7 @@
         <v>27</v>
       </c>
       <c r="B1002">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C1002">
         <v>524</v>
@@ -7920,82 +7927,82 @@
         <v>29</v>
       </c>
       <c r="B1004">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C1004">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D1004">
-        <v>4228</v>
+        <v>4230</v>
       </c>
       <c r="E1004">
-        <v>4573</v>
+        <v>4577</v>
       </c>
       <c r="F1004">
-        <v>7105</v>
+        <v>7108</v>
       </c>
       <c r="G1004">
-        <v>14237</v>
+        <v>14242</v>
       </c>
       <c r="H1004">
-        <v>14685</v>
+        <v>14691</v>
       </c>
       <c r="I1004">
-        <v>22120</v>
+        <v>22127</v>
       </c>
       <c r="J1004">
-        <v>31764</v>
+        <v>31774</v>
       </c>
       <c r="K1004">
-        <v>36334</v>
+        <v>36343</v>
       </c>
       <c r="L1004">
-        <v>41320</v>
+        <v>41333</v>
       </c>
       <c r="M1004">
-        <v>42032</v>
+        <v>42045</v>
       </c>
       <c r="N1004">
-        <v>42568</v>
+        <v>42581</v>
       </c>
       <c r="O1004">
-        <v>43137</v>
+        <v>43151</v>
       </c>
       <c r="P1004">
-        <v>51579</v>
+        <v>51589</v>
       </c>
       <c r="Q1004">
-        <v>56977</v>
+        <v>56987</v>
       </c>
       <c r="R1004">
-        <v>57689</v>
+        <v>57698</v>
       </c>
       <c r="S1004">
-        <v>63499</v>
+        <v>63508</v>
       </c>
       <c r="T1004">
-        <v>66636</v>
+        <v>66644</v>
       </c>
       <c r="U1004">
-        <v>69960</v>
+        <v>69972</v>
       </c>
       <c r="V1004">
-        <v>79760</v>
+        <v>79773</v>
       </c>
       <c r="W1004">
-        <v>95008</v>
+        <v>95020</v>
       </c>
       <c r="X1004">
-        <v>112888</v>
+        <v>112905</v>
       </c>
       <c r="Y1004">
-        <v>118038</v>
+        <v>118060</v>
       </c>
       <c r="Z1004">
-        <v>141339</v>
+        <v>141356</v>
       </c>
       <c r="AA1004">
-        <v>164740</v>
+        <v>164760</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8003,7 +8010,7 @@
         <v>30</v>
       </c>
       <c r="B1005">
-        <v>20128</v>
+        <v>20479</v>
       </c>
       <c r="C1005">
         <v>15620</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1851,6 +1851,7 @@
       <c r="A138">
         <v>137</v>
       </c>
+      <c r="B138" s="2"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:8">
@@ -1991,12 +1992,14 @@
       <c r="A154">
         <v>153</v>
       </c>
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:20">
       <c r="A155">
         <v>154</v>
       </c>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:20">
       <c r="A156">
@@ -2232,6 +2235,7 @@
       <c r="A190">
         <v>189</v>
       </c>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
@@ -3489,6 +3493,7 @@
       <c r="A365">
         <v>364</v>
       </c>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" spans="1:12">
       <c r="A366">
@@ -3575,6 +3580,7 @@
       <c r="A379">
         <v>378</v>
       </c>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" spans="1:8">
       <c r="A380">
@@ -3612,6 +3618,7 @@
       <c r="A385">
         <v>384</v>
       </c>
+      <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="F385" s="2"/>
     </row>
@@ -3731,6 +3738,7 @@
       <c r="A402">
         <v>401</v>
       </c>
+      <c r="B402" s="2"/>
     </row>
     <row r="403" spans="1:6">
       <c r="A403">
@@ -4167,6 +4175,7 @@
       <c r="A472">
         <v>471</v>
       </c>
+      <c r="B472" s="2"/>
     </row>
     <row r="473" spans="1:6">
       <c r="A473">
@@ -4736,6 +4745,7 @@
       <c r="A554">
         <v>553</v>
       </c>
+      <c r="B554" s="2"/>
     </row>
     <row r="555" spans="1:13">
       <c r="A555">
@@ -5326,6 +5336,7 @@
       <c r="A650">
         <v>649</v>
       </c>
+      <c r="B650" s="2"/>
     </row>
     <row r="651" spans="1:19">
       <c r="A651">
@@ -5553,6 +5564,7 @@
       <c r="A684">
         <v>683</v>
       </c>
+      <c r="B684" s="2"/>
     </row>
     <row r="685" spans="1:13">
       <c r="A685">
@@ -6621,6 +6633,7 @@
       <c r="A836">
         <v>835</v>
       </c>
+      <c r="B836" s="2"/>
       <c r="C836" s="3"/>
     </row>
     <row r="837" spans="1:8">
@@ -7761,7 +7774,7 @@
         <v>27</v>
       </c>
       <c r="B1002">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="C1002">
         <v>524</v>
@@ -7927,7 +7940,7 @@
         <v>29</v>
       </c>
       <c r="B1004">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C1004">
         <v>286</v>
@@ -7936,73 +7949,73 @@
         <v>4230</v>
       </c>
       <c r="E1004">
-        <v>4577</v>
+        <v>4580</v>
       </c>
       <c r="F1004">
-        <v>7108</v>
+        <v>7111</v>
       </c>
       <c r="G1004">
-        <v>14242</v>
+        <v>14247</v>
       </c>
       <c r="H1004">
-        <v>14691</v>
+        <v>14696</v>
       </c>
       <c r="I1004">
-        <v>22127</v>
+        <v>22135</v>
       </c>
       <c r="J1004">
-        <v>31774</v>
+        <v>31781</v>
       </c>
       <c r="K1004">
-        <v>36343</v>
+        <v>36356</v>
       </c>
       <c r="L1004">
-        <v>41333</v>
+        <v>41340</v>
       </c>
       <c r="M1004">
-        <v>42045</v>
+        <v>42054</v>
       </c>
       <c r="N1004">
-        <v>42581</v>
+        <v>42590</v>
       </c>
       <c r="O1004">
-        <v>43151</v>
+        <v>43159</v>
       </c>
       <c r="P1004">
-        <v>51589</v>
+        <v>51598</v>
       </c>
       <c r="Q1004">
-        <v>56987</v>
+        <v>56995</v>
       </c>
       <c r="R1004">
-        <v>57698</v>
+        <v>57708</v>
       </c>
       <c r="S1004">
-        <v>63508</v>
+        <v>63518</v>
       </c>
       <c r="T1004">
-        <v>66644</v>
+        <v>66656</v>
       </c>
       <c r="U1004">
-        <v>69972</v>
+        <v>69984</v>
       </c>
       <c r="V1004">
-        <v>79773</v>
+        <v>79787</v>
       </c>
       <c r="W1004">
-        <v>95020</v>
+        <v>95038</v>
       </c>
       <c r="X1004">
-        <v>112905</v>
+        <v>112924</v>
       </c>
       <c r="Y1004">
-        <v>118060</v>
+        <v>118078</v>
       </c>
       <c r="Z1004">
-        <v>141356</v>
+        <v>141382</v>
       </c>
       <c r="AA1004">
-        <v>164760</v>
+        <v>164805</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8010,7 +8023,7 @@
         <v>30</v>
       </c>
       <c r="B1005">
-        <v>20479</v>
+        <v>21144</v>
       </c>
       <c r="C1005">
         <v>15620</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1610,6 +1610,7 @@
       <c r="A108">
         <v>107</v>
       </c>
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:26">
@@ -1761,6 +1762,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="O126" s="2"/>
+      <c r="Q126" s="2"/>
     </row>
     <row r="127" spans="1:17">
       <c r="A127">
@@ -2088,6 +2090,7 @@
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169">
@@ -2308,6 +2311,7 @@
       <c r="A200">
         <v>199</v>
       </c>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="1:24">
       <c r="A201">
@@ -3546,6 +3550,7 @@
       <c r="A373">
         <v>372</v>
       </c>
+      <c r="B373" s="2"/>
     </row>
     <row r="374" spans="1:8">
       <c r="A374">
@@ -4994,6 +4999,7 @@
       <c r="A596">
         <v>595</v>
       </c>
+      <c r="B596" s="2"/>
     </row>
     <row r="597" spans="1:23">
       <c r="A597">
@@ -5052,6 +5058,7 @@
       <c r="A604">
         <v>603</v>
       </c>
+      <c r="B604" s="2"/>
     </row>
     <row r="605" spans="1:23">
       <c r="A605">
@@ -5765,6 +5772,7 @@
       <c r="A710">
         <v>709</v>
       </c>
+      <c r="B710" s="2"/>
     </row>
     <row r="711" spans="1:13">
       <c r="A711">
@@ -6379,6 +6387,7 @@
       <c r="A797">
         <v>796</v>
       </c>
+      <c r="B797" s="2"/>
     </row>
     <row r="798" spans="1:13">
       <c r="A798">
@@ -7519,6 +7528,7 @@
       <c r="A958">
         <v>957</v>
       </c>
+      <c r="B958" s="2"/>
     </row>
     <row r="959" spans="1:10">
       <c r="A959">
@@ -7558,6 +7568,7 @@
       <c r="A965">
         <v>964</v>
       </c>
+      <c r="B965" s="2"/>
     </row>
     <row r="966" spans="1:18">
       <c r="A966">
@@ -7774,7 +7785,7 @@
         <v>27</v>
       </c>
       <c r="B1002">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C1002">
         <v>524</v>
@@ -7819,7 +7830,7 @@
         <v>10</v>
       </c>
       <c r="Q1002">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R1002">
         <v>24</v>
@@ -7940,82 +7951,82 @@
         <v>29</v>
       </c>
       <c r="B1004">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C1004">
         <v>286</v>
       </c>
       <c r="D1004">
-        <v>4230</v>
+        <v>4232</v>
       </c>
       <c r="E1004">
-        <v>4580</v>
+        <v>4582</v>
       </c>
       <c r="F1004">
-        <v>7111</v>
+        <v>7115</v>
       </c>
       <c r="G1004">
-        <v>14247</v>
+        <v>14253</v>
       </c>
       <c r="H1004">
-        <v>14696</v>
+        <v>14707</v>
       </c>
       <c r="I1004">
-        <v>22135</v>
+        <v>22147</v>
       </c>
       <c r="J1004">
-        <v>31781</v>
+        <v>31793</v>
       </c>
       <c r="K1004">
-        <v>36356</v>
+        <v>36365</v>
       </c>
       <c r="L1004">
-        <v>41340</v>
+        <v>41352</v>
       </c>
       <c r="M1004">
-        <v>42054</v>
+        <v>42062</v>
       </c>
       <c r="N1004">
-        <v>42590</v>
+        <v>42597</v>
       </c>
       <c r="O1004">
-        <v>43159</v>
+        <v>43169</v>
       </c>
       <c r="P1004">
-        <v>51598</v>
+        <v>51613</v>
       </c>
       <c r="Q1004">
-        <v>56995</v>
+        <v>52735</v>
       </c>
       <c r="R1004">
-        <v>57708</v>
+        <v>57729</v>
       </c>
       <c r="S1004">
-        <v>63518</v>
+        <v>63541</v>
       </c>
       <c r="T1004">
-        <v>66656</v>
+        <v>66678</v>
       </c>
       <c r="U1004">
-        <v>69984</v>
+        <v>70005</v>
       </c>
       <c r="V1004">
-        <v>79787</v>
+        <v>79810</v>
       </c>
       <c r="W1004">
-        <v>95038</v>
+        <v>95061</v>
       </c>
       <c r="X1004">
-        <v>112924</v>
+        <v>112956</v>
       </c>
       <c r="Y1004">
-        <v>118078</v>
+        <v>118111</v>
       </c>
       <c r="Z1004">
-        <v>141382</v>
+        <v>141429</v>
       </c>
       <c r="AA1004">
-        <v>164805</v>
+        <v>164861</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8023,7 +8034,7 @@
         <v>30</v>
       </c>
       <c r="B1005">
-        <v>21144</v>
+        <v>21650</v>
       </c>
       <c r="C1005">
         <v>15620</v>
@@ -8068,7 +8079,7 @@
         <v>191</v>
       </c>
       <c r="Q1005">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="R1005">
         <v>153</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1802,6 +1802,7 @@
       <c r="A131">
         <v>130</v>
       </c>
+      <c r="B131" s="2"/>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:8">
@@ -1826,12 +1827,14 @@
       <c r="A134">
         <v>133</v>
       </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:8">
@@ -2357,6 +2360,7 @@
       <c r="A207">
         <v>206</v>
       </c>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="1:24">
       <c r="A208">
@@ -2382,6 +2386,7 @@
       <c r="A211">
         <v>210</v>
       </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="2"/>
     </row>
     <row r="212" spans="1:6">
@@ -2412,6 +2417,7 @@
       <c r="A216">
         <v>215</v>
       </c>
+      <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="F216" s="2"/>
     </row>
@@ -2691,6 +2697,7 @@
       <c r="A261">
         <v>260</v>
       </c>
+      <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:20">
@@ -3405,6 +3412,7 @@
       <c r="A352">
         <v>351</v>
       </c>
+      <c r="B352" s="2"/>
       <c r="C352" s="2"/>
     </row>
     <row r="353" spans="1:12">
@@ -3503,6 +3511,7 @@
       <c r="A366">
         <v>365</v>
       </c>
+      <c r="B366" s="2"/>
       <c r="C366" s="2"/>
     </row>
     <row r="367" spans="1:12">
@@ -4791,6 +4800,7 @@
       <c r="A560">
         <v>559</v>
       </c>
+      <c r="B560" s="2"/>
     </row>
     <row r="561" spans="1:6">
       <c r="A561">
@@ -7785,7 +7795,7 @@
         <v>27</v>
       </c>
       <c r="B1002">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="C1002">
         <v>524</v>
@@ -7951,82 +7961,82 @@
         <v>29</v>
       </c>
       <c r="B1004">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C1004">
         <v>286</v>
       </c>
       <c r="D1004">
-        <v>4232</v>
+        <v>4238</v>
       </c>
       <c r="E1004">
-        <v>4582</v>
+        <v>4588</v>
       </c>
       <c r="F1004">
-        <v>7115</v>
+        <v>7117</v>
       </c>
       <c r="G1004">
-        <v>14253</v>
+        <v>14259</v>
       </c>
       <c r="H1004">
-        <v>14707</v>
+        <v>14715</v>
       </c>
       <c r="I1004">
-        <v>22147</v>
+        <v>22158</v>
       </c>
       <c r="J1004">
-        <v>31793</v>
+        <v>31805</v>
       </c>
       <c r="K1004">
-        <v>36365</v>
+        <v>36372</v>
       </c>
       <c r="L1004">
-        <v>41352</v>
+        <v>41366</v>
       </c>
       <c r="M1004">
-        <v>42062</v>
+        <v>42078</v>
       </c>
       <c r="N1004">
-        <v>42597</v>
+        <v>42615</v>
       </c>
       <c r="O1004">
-        <v>43169</v>
+        <v>43186</v>
       </c>
       <c r="P1004">
-        <v>51613</v>
+        <v>51635</v>
       </c>
       <c r="Q1004">
-        <v>52735</v>
+        <v>52757</v>
       </c>
       <c r="R1004">
-        <v>57729</v>
+        <v>57744</v>
       </c>
       <c r="S1004">
-        <v>63541</v>
+        <v>63556</v>
       </c>
       <c r="T1004">
-        <v>66678</v>
+        <v>66699</v>
       </c>
       <c r="U1004">
-        <v>70005</v>
+        <v>70023</v>
       </c>
       <c r="V1004">
-        <v>79810</v>
+        <v>79832</v>
       </c>
       <c r="W1004">
-        <v>95061</v>
+        <v>95087</v>
       </c>
       <c r="X1004">
-        <v>112956</v>
+        <v>112989</v>
       </c>
       <c r="Y1004">
-        <v>118111</v>
+        <v>118142</v>
       </c>
       <c r="Z1004">
-        <v>141429</v>
+        <v>141475</v>
       </c>
       <c r="AA1004">
-        <v>164861</v>
+        <v>164923</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8034,7 +8044,7 @@
         <v>30</v>
       </c>
       <c r="B1005">
-        <v>21650</v>
+        <v>22179</v>
       </c>
       <c r="C1005">
         <v>15620</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -7970,73 +7970,73 @@
         <v>4238</v>
       </c>
       <c r="E1004">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="F1004">
-        <v>7117</v>
+        <v>7118</v>
       </c>
       <c r="G1004">
-        <v>14259</v>
+        <v>14260</v>
       </c>
       <c r="H1004">
-        <v>14715</v>
+        <v>14719</v>
       </c>
       <c r="I1004">
-        <v>22158</v>
+        <v>22162</v>
       </c>
       <c r="J1004">
-        <v>31805</v>
+        <v>31806</v>
       </c>
       <c r="K1004">
-        <v>36372</v>
+        <v>36378</v>
       </c>
       <c r="L1004">
-        <v>41366</v>
+        <v>41375</v>
       </c>
       <c r="M1004">
-        <v>42078</v>
+        <v>42087</v>
       </c>
       <c r="N1004">
-        <v>42615</v>
+        <v>42624</v>
       </c>
       <c r="O1004">
-        <v>43186</v>
+        <v>43194</v>
       </c>
       <c r="P1004">
-        <v>51635</v>
+        <v>51641</v>
       </c>
       <c r="Q1004">
-        <v>52757</v>
+        <v>52762</v>
       </c>
       <c r="R1004">
-        <v>57744</v>
+        <v>57746</v>
       </c>
       <c r="S1004">
-        <v>63556</v>
+        <v>63564</v>
       </c>
       <c r="T1004">
-        <v>66699</v>
+        <v>66711</v>
       </c>
       <c r="U1004">
-        <v>70023</v>
+        <v>70035</v>
       </c>
       <c r="V1004">
-        <v>79832</v>
+        <v>79848</v>
       </c>
       <c r="W1004">
-        <v>95087</v>
+        <v>95109</v>
       </c>
       <c r="X1004">
-        <v>112989</v>
+        <v>113017</v>
       </c>
       <c r="Y1004">
-        <v>118142</v>
+        <v>118173</v>
       </c>
       <c r="Z1004">
-        <v>141475</v>
+        <v>141507</v>
       </c>
       <c r="AA1004">
-        <v>164923</v>
+        <v>164947</v>
       </c>
     </row>
     <row r="1005" spans="1:27">

--- a/results.xlsx
+++ b/results.xlsx
@@ -64,10 +64,10 @@
     <t>Кассал Кирилл</t>
   </si>
   <si>
-    <t>Фалалеев Святослав</t>
+    <t>Трегубович Андрей</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
+    <t>Фалалеев Святослав</t>
   </si>
   <si>
     <t>Абрамов Александр</t>
@@ -728,7 +728,7 @@
       <c r="I11" s="2"/>
       <c r="L11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:27">
@@ -1085,7 +1085,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="J45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:26">
       <c r="A46">
@@ -1165,7 +1165,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="Q54" s="2"/>
+      <c r="P54" s="2"/>
     </row>
     <row r="55" spans="1:18">
       <c r="A55">
@@ -1653,7 +1653,7 @@
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1661,37 +1661,37 @@
       <c r="C113" s="2"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="C119" s="2"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1709,14 +1709,14 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="C122" s="2"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1732,12 +1732,12 @@
       <c r="C123" s="2"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1749,9 +1749,9 @@
       <c r="I125" s="2"/>
       <c r="M125" s="2"/>
       <c r="O125" s="2"/>
-      <c r="Q125" s="2"/>
-    </row>
-    <row r="126" spans="1:17">
+      <c r="P125" s="2"/>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1762,9 +1762,9 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="O126" s="2"/>
-      <c r="Q126" s="2"/>
-    </row>
-    <row r="127" spans="1:17">
+      <c r="P126" s="2"/>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1773,8 +1773,9 @@
       <c r="F127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-    </row>
-    <row r="128" spans="1:17">
+      <c r="P127" s="2"/>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2334,7 +2335,7 @@
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
       <c r="G203" s="3"/>
-      <c r="Q203" s="3"/>
+      <c r="P203" s="3"/>
     </row>
     <row r="204" spans="1:24">
       <c r="A204">
@@ -3101,7 +3102,7 @@
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
+      <c r="Q313" s="2"/>
       <c r="S313" s="2"/>
     </row>
     <row r="314" spans="1:19">
@@ -5314,7 +5315,7 @@
       <c r="H644" s="2"/>
       <c r="I644" s="2"/>
       <c r="O644" s="2"/>
-      <c r="P644" s="2"/>
+      <c r="Q644" s="2"/>
       <c r="S644" s="2"/>
     </row>
     <row r="645" spans="1:19">
@@ -5646,7 +5647,7 @@
       <c r="G692" s="2"/>
       <c r="H692" s="3"/>
       <c r="L692" s="2"/>
-      <c r="P692" s="2"/>
+      <c r="Q692" s="2"/>
     </row>
     <row r="693" spans="1:20">
       <c r="A693">
@@ -6303,7 +6304,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="785" spans="1:13">
+    <row r="785" spans="1:16">
       <c r="A785">
         <v>784</v>
       </c>
@@ -6311,8 +6312,9 @@
       <c r="C785" s="2"/>
       <c r="F785" s="2"/>
       <c r="M785" s="2"/>
-    </row>
-    <row r="786" spans="1:13">
+      <c r="P785" s="2"/>
+    </row>
+    <row r="786" spans="1:16">
       <c r="A786">
         <v>785</v>
       </c>
@@ -6320,13 +6322,13 @@
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
     </row>
-    <row r="787" spans="1:13">
+    <row r="787" spans="1:16">
       <c r="A787">
         <v>786</v>
       </c>
       <c r="B787" s="2"/>
     </row>
-    <row r="788" spans="1:13">
+    <row r="788" spans="1:16">
       <c r="A788">
         <v>787</v>
       </c>
@@ -6335,18 +6337,18 @@
       <c r="D788" s="3"/>
       <c r="E788" s="2"/>
     </row>
-    <row r="789" spans="1:13">
+    <row r="789" spans="1:16">
       <c r="A789">
         <v>788</v>
       </c>
     </row>
-    <row r="790" spans="1:13">
+    <row r="790" spans="1:16">
       <c r="A790">
         <v>789</v>
       </c>
       <c r="B790" s="2"/>
     </row>
-    <row r="791" spans="1:13">
+    <row r="791" spans="1:16">
       <c r="A791">
         <v>790</v>
       </c>
@@ -6354,7 +6356,7 @@
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
     </row>
-    <row r="792" spans="1:13">
+    <row r="792" spans="1:16">
       <c r="A792">
         <v>791</v>
       </c>
@@ -6362,7 +6364,7 @@
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
     </row>
-    <row r="793" spans="1:13">
+    <row r="793" spans="1:16">
       <c r="A793">
         <v>792</v>
       </c>
@@ -6371,14 +6373,14 @@
       <c r="D793" s="2"/>
       <c r="E793" s="2"/>
     </row>
-    <row r="794" spans="1:13">
+    <row r="794" spans="1:16">
       <c r="A794">
         <v>793</v>
       </c>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
     </row>
-    <row r="795" spans="1:13">
+    <row r="795" spans="1:16">
       <c r="A795">
         <v>794</v>
       </c>
@@ -6387,24 +6389,24 @@
       <c r="D795" s="2"/>
       <c r="H795" s="3"/>
     </row>
-    <row r="796" spans="1:13">
+    <row r="796" spans="1:16">
       <c r="A796">
         <v>795</v>
       </c>
       <c r="B796" s="2"/>
     </row>
-    <row r="797" spans="1:13">
+    <row r="797" spans="1:16">
       <c r="A797">
         <v>796</v>
       </c>
       <c r="B797" s="2"/>
     </row>
-    <row r="798" spans="1:13">
+    <row r="798" spans="1:16">
       <c r="A798">
         <v>797</v>
       </c>
     </row>
-    <row r="799" spans="1:13">
+    <row r="799" spans="1:16">
       <c r="A799">
         <v>798</v>
       </c>
@@ -6413,7 +6415,7 @@
       <c r="D799" s="2"/>
       <c r="E799" s="2"/>
     </row>
-    <row r="800" spans="1:13">
+    <row r="800" spans="1:16">
       <c r="A800">
         <v>799</v>
       </c>
@@ -6530,7 +6532,7 @@
       <c r="I818" s="2"/>
       <c r="L818" s="2"/>
       <c r="O818" s="2"/>
-      <c r="P818" s="2"/>
+      <c r="Q818" s="2"/>
       <c r="S818" s="2"/>
     </row>
     <row r="819" spans="1:23">
@@ -7429,7 +7431,7 @@
       <c r="I944" s="2"/>
       <c r="L944" s="2"/>
       <c r="O944" s="2"/>
-      <c r="P944" s="2"/>
+      <c r="Q944" s="2"/>
       <c r="S944" s="3"/>
     </row>
     <row r="945" spans="1:10">
@@ -7840,7 +7842,7 @@
         <v>10</v>
       </c>
       <c r="Q1002">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R1002">
         <v>24</v>
@@ -7920,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="P1003">
+        <v>1</v>
+      </c>
+      <c r="Q1003">
         <v>0</v>
-      </c>
-      <c r="Q1003">
-        <v>1</v>
       </c>
       <c r="R1003">
         <v>2</v>
@@ -7967,76 +7969,76 @@
         <v>286</v>
       </c>
       <c r="D1004">
-        <v>4238</v>
+        <v>4240</v>
       </c>
       <c r="E1004">
         <v>4589</v>
       </c>
       <c r="F1004">
-        <v>7118</v>
+        <v>7121</v>
       </c>
       <c r="G1004">
-        <v>14260</v>
+        <v>14261</v>
       </c>
       <c r="H1004">
-        <v>14719</v>
+        <v>14717</v>
       </c>
       <c r="I1004">
         <v>22162</v>
       </c>
       <c r="J1004">
-        <v>31806</v>
+        <v>31814</v>
       </c>
       <c r="K1004">
-        <v>36378</v>
+        <v>36381</v>
       </c>
       <c r="L1004">
-        <v>41375</v>
+        <v>41377</v>
       </c>
       <c r="M1004">
-        <v>42087</v>
+        <v>42090</v>
       </c>
       <c r="N1004">
-        <v>42624</v>
+        <v>42627</v>
       </c>
       <c r="O1004">
-        <v>43194</v>
+        <v>43197</v>
       </c>
       <c r="P1004">
-        <v>51641</v>
+        <v>45369</v>
       </c>
       <c r="Q1004">
-        <v>52762</v>
+        <v>51649</v>
       </c>
       <c r="R1004">
-        <v>57746</v>
+        <v>57757</v>
       </c>
       <c r="S1004">
-        <v>63564</v>
+        <v>63574</v>
       </c>
       <c r="T1004">
-        <v>66711</v>
+        <v>66725</v>
       </c>
       <c r="U1004">
-        <v>70035</v>
+        <v>70050</v>
       </c>
       <c r="V1004">
-        <v>79848</v>
+        <v>79865</v>
       </c>
       <c r="W1004">
-        <v>95109</v>
+        <v>95135</v>
       </c>
       <c r="X1004">
-        <v>113017</v>
+        <v>113036</v>
       </c>
       <c r="Y1004">
-        <v>118173</v>
+        <v>118192</v>
       </c>
       <c r="Z1004">
-        <v>141507</v>
+        <v>141527</v>
       </c>
       <c r="AA1004">
-        <v>164947</v>
+        <v>164970</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8086,10 +8088,10 @@
         <v>264</v>
       </c>
       <c r="P1005">
+        <v>243</v>
+      </c>
+      <c r="Q1005">
         <v>191</v>
-      </c>
-      <c r="Q1005">
-        <v>183</v>
       </c>
       <c r="R1005">
         <v>153</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -52,10 +52,10 @@
     <t>Кудрявцев Никита</t>
   </si>
   <si>
-    <t>Серебренникова Елена</t>
+    <t>Москвин Михаил</t>
   </si>
   <si>
-    <t>Москвин Михаил</t>
+    <t>Серебренникова Елена</t>
   </si>
   <si>
     <t>Аникутин Михаил</t>
@@ -575,7 +575,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="R2" s="2"/>
@@ -726,7 +726,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="S11" s="3"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="M59" s="3"/>
+      <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
@@ -1213,7 +1213,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:18">
       <c r="A61">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="M90" s="3"/>
+      <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91">
@@ -1747,7 +1747,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="I125" s="2"/>
-      <c r="M125" s="2"/>
+      <c r="L125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
     </row>
@@ -1954,7 +1954,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="3"/>
-      <c r="M149" s="2"/>
+      <c r="L149" s="2"/>
       <c r="N149" s="2"/>
       <c r="R149" s="2"/>
     </row>
@@ -2041,24 +2041,24 @@
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2067,9 +2067,9 @@
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="G164" s="2"/>
-      <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164" s="3"/>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2077,54 +2077,54 @@
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:13">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:13">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:13">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:13">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2132,7 +2132,7 @@
       <c r="C173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:13">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:13">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="C175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
-      <c r="M266" s="2"/>
+      <c r="L266" s="2"/>
     </row>
     <row r="267" spans="1:20">
       <c r="A267">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
-      <c r="M268" s="3"/>
+      <c r="L268" s="3"/>
     </row>
     <row r="269" spans="1:20">
       <c r="A269">
@@ -2916,25 +2916,25 @@
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:13">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" s="2"/>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:13">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:13">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:13">
       <c r="A292">
         <v>291</v>
       </c>
@@ -2942,14 +2942,14 @@
       <c r="C292" s="2"/>
       <c r="D292" s="3"/>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:13">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="3"/>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:13">
       <c r="A294">
         <v>293</v>
       </c>
@@ -2958,8 +2958,9 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
-    </row>
-    <row r="295" spans="1:12">
+      <c r="L294" s="2"/>
+    </row>
+    <row r="295" spans="1:13">
       <c r="A295">
         <v>294</v>
       </c>
@@ -2968,14 +2969,14 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:13">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:13">
       <c r="A297">
         <v>296</v>
       </c>
@@ -2985,9 +2986,9 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="H297" s="2"/>
-      <c r="L297" s="2"/>
-    </row>
-    <row r="298" spans="1:12">
+      <c r="M297" s="2"/>
+    </row>
+    <row r="298" spans="1:13">
       <c r="A298">
         <v>297</v>
       </c>
@@ -2997,7 +2998,7 @@
       <c r="E298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:13">
       <c r="A299">
         <v>298</v>
       </c>
@@ -3005,32 +3006,32 @@
       <c r="C299" s="2"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:13">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" s="2"/>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:13">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" s="2"/>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:13">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:13">
       <c r="A304">
         <v>303</v>
       </c>
@@ -3127,7 +3128,7 @@
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
-      <c r="L316" s="2"/>
+      <c r="M316" s="2"/>
     </row>
     <row r="317" spans="1:19">
       <c r="A317">
@@ -3225,7 +3226,7 @@
       <c r="G328" s="2"/>
       <c r="J328" s="2"/>
       <c r="K328" s="3"/>
-      <c r="L328" s="2"/>
+      <c r="M328" s="2"/>
     </row>
     <row r="329" spans="1:22">
       <c r="A329">
@@ -3304,6 +3305,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="K337" s="2"/>
+      <c r="L337" s="2"/>
       <c r="N337" s="2"/>
     </row>
     <row r="338" spans="1:14">
@@ -3416,40 +3418,40 @@
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:13">
       <c r="A353">
         <v>352</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:13">
       <c r="A354">
         <v>353</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:13">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:13">
       <c r="A356">
         <v>355</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:13">
       <c r="A357">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:13">
       <c r="A358">
         <v>357</v>
       </c>
@@ -3459,41 +3461,41 @@
       <c r="E358" s="2"/>
       <c r="G358" s="2"/>
       <c r="K358" s="3"/>
-      <c r="L358" s="2"/>
-    </row>
-    <row r="359" spans="1:12">
+      <c r="M358" s="2"/>
+    </row>
+    <row r="359" spans="1:13">
       <c r="A359">
         <v>358</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:13">
       <c r="A360">
         <v>359</v>
       </c>
       <c r="B360" s="2"/>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:13">
       <c r="A361">
         <v>360</v>
       </c>
       <c r="B361" s="2"/>
       <c r="J361" s="3"/>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:13">
       <c r="A362">
         <v>361</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:13">
       <c r="A363">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:13">
       <c r="A364">
         <v>363</v>
       </c>
@@ -3502,26 +3504,26 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:13">
       <c r="A365">
         <v>364</v>
       </c>
       <c r="B365" s="2"/>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:13">
       <c r="A366">
         <v>365</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:13">
       <c r="A367">
         <v>366</v>
       </c>
       <c r="C367" s="2"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:13">
       <c r="A368">
         <v>367</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="C384" s="2"/>
       <c r="E384" s="2"/>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:12">
       <c r="A385">
         <v>384</v>
       </c>
@@ -3637,20 +3639,20 @@
       <c r="C385" s="2"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:12">
       <c r="A386">
         <v>385</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="1:13">
+    <row r="387" spans="1:12">
       <c r="A387">
         <v>386</v>
       </c>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:12">
       <c r="A388">
         <v>387</v>
       </c>
@@ -3658,33 +3660,34 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
-    </row>
-    <row r="389" spans="1:13">
+      <c r="L388" s="2"/>
+    </row>
+    <row r="389" spans="1:12">
       <c r="A389">
         <v>388</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:12">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:13">
+    <row r="391" spans="1:12">
       <c r="A391">
         <v>390</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="1:13">
+    <row r="392" spans="1:12">
       <c r="A392">
         <v>391</v>
       </c>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:13">
+    <row r="393" spans="1:12">
       <c r="A393">
         <v>392</v>
       </c>
@@ -3692,13 +3695,13 @@
       <c r="C393" s="2"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:13">
+    <row r="394" spans="1:12">
       <c r="A394">
         <v>393</v>
       </c>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:13">
+    <row r="395" spans="1:12">
       <c r="A395">
         <v>394</v>
       </c>
@@ -3707,7 +3710,7 @@
       <c r="E395" s="2"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="1:13">
+    <row r="396" spans="1:12">
       <c r="A396">
         <v>395</v>
       </c>
@@ -3715,28 +3718,28 @@
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
     </row>
-    <row r="397" spans="1:13">
+    <row r="397" spans="1:12">
       <c r="A397">
         <v>396</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="1:13">
+    <row r="398" spans="1:12">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:13">
+    <row r="399" spans="1:12">
       <c r="A399">
         <v>398</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="I399" s="2"/>
-      <c r="M399" s="3"/>
-    </row>
-    <row r="400" spans="1:13">
+      <c r="L399" s="3"/>
+    </row>
+    <row r="400" spans="1:12">
       <c r="A400">
         <v>399</v>
       </c>
@@ -4340,7 +4343,7 @@
       <c r="C496" s="2"/>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:12">
       <c r="A497">
         <v>496</v>
       </c>
@@ -4350,19 +4353,19 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:12">
       <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:12">
       <c r="A499">
         <v>498</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:12">
       <c r="A500">
         <v>499</v>
       </c>
@@ -4370,32 +4373,32 @@
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:12">
       <c r="A501">
         <v>500</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:12">
       <c r="A502">
         <v>501</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:12">
       <c r="A503">
         <v>502</v>
       </c>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:12">
       <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:12">
       <c r="A505">
         <v>504</v>
       </c>
@@ -4406,41 +4409,41 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:12">
       <c r="A506">
         <v>505</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:12">
       <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:12">
       <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:12">
       <c r="A509">
         <v>508</v>
       </c>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:12">
       <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:12">
       <c r="A511">
         <v>510</v>
       </c>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:12">
       <c r="A512">
         <v>511</v>
       </c>
@@ -4449,6 +4452,7 @@
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="H512" s="2"/>
+      <c r="L512" s="3"/>
     </row>
     <row r="513" spans="1:22">
       <c r="A513">
@@ -4493,7 +4497,7 @@
       </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
-      <c r="M517" s="3"/>
+      <c r="L517" s="3"/>
     </row>
     <row r="518" spans="1:22">
       <c r="A518">
@@ -4545,7 +4549,7 @@
       </c>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
-      <c r="M524" s="3"/>
+      <c r="L524" s="3"/>
     </row>
     <row r="525" spans="1:22">
       <c r="A525">
@@ -4692,7 +4696,7 @@
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
     </row>
-    <row r="545" spans="1:13">
+    <row r="545" spans="1:12">
       <c r="A545">
         <v>544</v>
       </c>
@@ -4701,37 +4705,37 @@
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
     </row>
-    <row r="546" spans="1:13">
+    <row r="546" spans="1:12">
       <c r="A546">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:13">
+    <row r="547" spans="1:12">
       <c r="A547">
         <v>546</v>
       </c>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="1:13">
+    <row r="548" spans="1:12">
       <c r="A548">
         <v>547</v>
       </c>
       <c r="B548" s="2"/>
     </row>
-    <row r="549" spans="1:13">
+    <row r="549" spans="1:12">
       <c r="A549">
         <v>548</v>
       </c>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="1:13">
+    <row r="550" spans="1:12">
       <c r="A550">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:13">
+    <row r="551" spans="1:12">
       <c r="A551">
         <v>550</v>
       </c>
@@ -4743,26 +4747,26 @@
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:12">
       <c r="A552">
         <v>551</v>
       </c>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:12">
       <c r="A553">
         <v>552</v>
       </c>
       <c r="B553" s="2"/>
     </row>
-    <row r="554" spans="1:13">
+    <row r="554" spans="1:12">
       <c r="A554">
         <v>553</v>
       </c>
       <c r="B554" s="2"/>
     </row>
-    <row r="555" spans="1:13">
+    <row r="555" spans="1:12">
       <c r="A555">
         <v>554</v>
       </c>
@@ -4773,31 +4777,31 @@
       <c r="F555" s="2"/>
       <c r="G555" s="2"/>
       <c r="K555" s="2"/>
-      <c r="M555" s="2"/>
-    </row>
-    <row r="556" spans="1:13">
+      <c r="L555" s="2"/>
+    </row>
+    <row r="556" spans="1:12">
       <c r="A556">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:13">
+    <row r="557" spans="1:12">
       <c r="A557">
         <v>556</v>
       </c>
       <c r="B557" s="2"/>
     </row>
-    <row r="558" spans="1:13">
+    <row r="558" spans="1:12">
       <c r="A558">
         <v>557</v>
       </c>
       <c r="B558" s="2"/>
     </row>
-    <row r="559" spans="1:13">
+    <row r="559" spans="1:12">
       <c r="A559">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:13">
+    <row r="560" spans="1:12">
       <c r="A560">
         <v>559</v>
       </c>
@@ -5389,47 +5393,47 @@
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:13">
+    <row r="657" spans="1:12">
       <c r="A657">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:13">
+    <row r="658" spans="1:12">
       <c r="A658">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:13">
+    <row r="659" spans="1:12">
       <c r="A659">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:13">
+    <row r="660" spans="1:12">
       <c r="A660">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:13">
+    <row r="661" spans="1:12">
       <c r="A661">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:13">
+    <row r="662" spans="1:12">
       <c r="A662">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:13">
+    <row r="663" spans="1:12">
       <c r="A663">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:13">
+    <row r="664" spans="1:12">
       <c r="A664">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:13">
+    <row r="665" spans="1:12">
       <c r="A665">
         <v>664</v>
       </c>
@@ -5437,44 +5441,44 @@
       <c r="C665" s="2"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:13">
+    <row r="666" spans="1:12">
       <c r="A666">
         <v>665</v>
       </c>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
     </row>
-    <row r="667" spans="1:13">
+    <row r="667" spans="1:12">
       <c r="A667">
         <v>666</v>
       </c>
       <c r="B667" s="2"/>
       <c r="C667" s="3"/>
     </row>
-    <row r="668" spans="1:13">
+    <row r="668" spans="1:12">
       <c r="A668">
         <v>667</v>
       </c>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="3"/>
-      <c r="M668" s="3"/>
-    </row>
-    <row r="669" spans="1:13">
+      <c r="L668" s="3"/>
+    </row>
+    <row r="669" spans="1:12">
       <c r="A669">
         <v>668</v>
       </c>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
     </row>
-    <row r="670" spans="1:13">
+    <row r="670" spans="1:12">
       <c r="A670">
         <v>669</v>
       </c>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="1:13">
+    <row r="671" spans="1:12">
       <c r="A671">
         <v>670</v>
       </c>
@@ -5482,32 +5486,32 @@
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
     </row>
-    <row r="672" spans="1:13">
+    <row r="672" spans="1:12">
       <c r="A672">
         <v>671</v>
       </c>
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="1:13">
+    <row r="673" spans="1:12">
       <c r="A673">
         <v>672</v>
       </c>
       <c r="B673" s="2"/>
       <c r="F673" s="2"/>
     </row>
-    <row r="674" spans="1:13">
+    <row r="674" spans="1:12">
       <c r="A674">
         <v>673</v>
       </c>
       <c r="B674" s="2"/>
     </row>
-    <row r="675" spans="1:13">
+    <row r="675" spans="1:12">
       <c r="A675">
         <v>674</v>
       </c>
       <c r="B675" s="2"/>
     </row>
-    <row r="676" spans="1:13">
+    <row r="676" spans="1:12">
       <c r="A676">
         <v>675</v>
       </c>
@@ -5517,14 +5521,14 @@
       <c r="E676" s="2"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="1:13">
+    <row r="677" spans="1:12">
       <c r="A677">
         <v>676</v>
       </c>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
     </row>
-    <row r="678" spans="1:13">
+    <row r="678" spans="1:12">
       <c r="A678">
         <v>677</v>
       </c>
@@ -5533,7 +5537,7 @@
       <c r="H678" s="3"/>
       <c r="K678" s="3"/>
     </row>
-    <row r="679" spans="1:13">
+    <row r="679" spans="1:12">
       <c r="A679">
         <v>678</v>
       </c>
@@ -5544,13 +5548,13 @@
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
     </row>
-    <row r="680" spans="1:13">
+    <row r="680" spans="1:12">
       <c r="A680">
         <v>679</v>
       </c>
       <c r="B680" s="2"/>
     </row>
-    <row r="681" spans="1:13">
+    <row r="681" spans="1:12">
       <c r="A681">
         <v>680</v>
       </c>
@@ -5561,15 +5565,15 @@
       <c r="H681" s="2"/>
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
-      <c r="M681" s="2"/>
-    </row>
-    <row r="682" spans="1:13">
+      <c r="L681" s="2"/>
+    </row>
+    <row r="682" spans="1:12">
       <c r="A682">
         <v>681</v>
       </c>
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="1:13">
+    <row r="683" spans="1:12">
       <c r="A683">
         <v>682</v>
       </c>
@@ -5578,20 +5582,20 @@
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:13">
+    <row r="684" spans="1:12">
       <c r="A684">
         <v>683</v>
       </c>
       <c r="B684" s="2"/>
     </row>
-    <row r="685" spans="1:13">
+    <row r="685" spans="1:12">
       <c r="A685">
         <v>684</v>
       </c>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
     </row>
-    <row r="686" spans="1:13">
+    <row r="686" spans="1:12">
       <c r="A686">
         <v>685</v>
       </c>
@@ -5602,14 +5606,14 @@
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
     </row>
-    <row r="687" spans="1:13">
+    <row r="687" spans="1:12">
       <c r="A687">
         <v>686</v>
       </c>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
     </row>
-    <row r="688" spans="1:13">
+    <row r="688" spans="1:12">
       <c r="A688">
         <v>687</v>
       </c>
@@ -5646,7 +5650,7 @@
       <c r="E692" s="3"/>
       <c r="G692" s="2"/>
       <c r="H692" s="3"/>
-      <c r="L692" s="2"/>
+      <c r="M692" s="2"/>
       <c r="Q692" s="2"/>
     </row>
     <row r="693" spans="1:20">
@@ -5805,7 +5809,7 @@
       </c>
       <c r="B713" s="2"/>
       <c r="C713" s="3"/>
-      <c r="L713" s="3"/>
+      <c r="M713" s="3"/>
     </row>
     <row r="714" spans="1:13">
       <c r="A714">
@@ -5828,7 +5832,7 @@
       <c r="E716" s="2"/>
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
-      <c r="M716" s="2"/>
+      <c r="L716" s="2"/>
     </row>
     <row r="717" spans="1:13">
       <c r="A717">
@@ -6311,7 +6315,7 @@
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
       <c r="F785" s="2"/>
-      <c r="M785" s="2"/>
+      <c r="L785" s="2"/>
       <c r="P785" s="2"/>
     </row>
     <row r="786" spans="1:16">
@@ -6530,7 +6534,7 @@
       <c r="G818" s="2"/>
       <c r="H818" s="2"/>
       <c r="I818" s="2"/>
-      <c r="L818" s="2"/>
+      <c r="M818" s="2"/>
       <c r="O818" s="2"/>
       <c r="Q818" s="2"/>
       <c r="S818" s="2"/>
@@ -6849,92 +6853,92 @@
         <v>863</v>
       </c>
     </row>
-    <row r="865" spans="1:13">
+    <row r="865" spans="1:12">
       <c r="A865">
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:13">
+    <row r="866" spans="1:12">
       <c r="A866">
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:13">
+    <row r="867" spans="1:12">
       <c r="A867">
         <v>866</v>
       </c>
     </row>
-    <row r="868" spans="1:13">
+    <row r="868" spans="1:12">
       <c r="A868">
         <v>867</v>
       </c>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:13">
+    <row r="869" spans="1:12">
       <c r="A869">
         <v>868</v>
       </c>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:13">
+    <row r="870" spans="1:12">
       <c r="A870">
         <v>869</v>
       </c>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
     </row>
-    <row r="871" spans="1:13">
+    <row r="871" spans="1:12">
       <c r="A871">
         <v>870</v>
       </c>
     </row>
-    <row r="872" spans="1:13">
+    <row r="872" spans="1:12">
       <c r="A872">
         <v>871</v>
       </c>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
-      <c r="M872" s="3"/>
-    </row>
-    <row r="873" spans="1:13">
+      <c r="L872" s="3"/>
+    </row>
+    <row r="873" spans="1:12">
       <c r="A873">
         <v>872</v>
       </c>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:13">
+    <row r="874" spans="1:12">
       <c r="A874">
         <v>873</v>
       </c>
     </row>
-    <row r="875" spans="1:13">
+    <row r="875" spans="1:12">
       <c r="A875">
         <v>874</v>
       </c>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:13">
+    <row r="876" spans="1:12">
       <c r="A876">
         <v>875</v>
       </c>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
     </row>
-    <row r="877" spans="1:13">
+    <row r="877" spans="1:12">
       <c r="A877">
         <v>876</v>
       </c>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
     </row>
-    <row r="878" spans="1:13">
+    <row r="878" spans="1:12">
       <c r="A878">
         <v>877</v>
       </c>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
     </row>
-    <row r="879" spans="1:13">
+    <row r="879" spans="1:12">
       <c r="A879">
         <v>878</v>
       </c>
@@ -6942,7 +6946,7 @@
       <c r="C879" s="2"/>
       <c r="D879" s="3"/>
     </row>
-    <row r="880" spans="1:13">
+    <row r="880" spans="1:12">
       <c r="A880">
         <v>879</v>
       </c>
@@ -7130,7 +7134,7 @@
       <c r="H904" s="2"/>
       <c r="I904" s="2"/>
       <c r="K904" s="2"/>
-      <c r="M904" s="2"/>
+      <c r="L904" s="2"/>
       <c r="N904" s="2"/>
       <c r="R904" s="2"/>
       <c r="T904" s="2"/>
@@ -7414,7 +7418,7 @@
       <c r="G943" s="2"/>
       <c r="H943" s="2"/>
       <c r="I943" s="2"/>
-      <c r="M943" s="2"/>
+      <c r="L943" s="2"/>
       <c r="R943" s="2"/>
       <c r="X943" s="2"/>
     </row>
@@ -7429,7 +7433,7 @@
       <c r="G944" s="2"/>
       <c r="H944" s="2"/>
       <c r="I944" s="2"/>
-      <c r="L944" s="2"/>
+      <c r="M944" s="2"/>
       <c r="O944" s="2"/>
       <c r="Q944" s="2"/>
       <c r="S944" s="3"/>
@@ -7827,10 +7831,10 @@
         <v>31</v>
       </c>
       <c r="L1002">
+        <v>19</v>
+      </c>
+      <c r="M1002">
         <v>15</v>
-      </c>
-      <c r="M1002">
-        <v>16</v>
       </c>
       <c r="N1002">
         <v>24</v>
@@ -7910,10 +7914,10 @@
         <v>14</v>
       </c>
       <c r="L1003">
+        <v>9</v>
+      </c>
+      <c r="M1003">
         <v>2</v>
-      </c>
-      <c r="M1003">
-        <v>8</v>
       </c>
       <c r="N1003">
         <v>8</v>
@@ -7969,76 +7973,76 @@
         <v>286</v>
       </c>
       <c r="D1004">
-        <v>4240</v>
+        <v>4246</v>
       </c>
       <c r="E1004">
-        <v>4589</v>
+        <v>4594</v>
       </c>
       <c r="F1004">
-        <v>7121</v>
+        <v>7126</v>
       </c>
       <c r="G1004">
-        <v>14261</v>
+        <v>14275</v>
       </c>
       <c r="H1004">
-        <v>14717</v>
+        <v>14732</v>
       </c>
       <c r="I1004">
-        <v>22162</v>
+        <v>22182</v>
       </c>
       <c r="J1004">
-        <v>31814</v>
+        <v>31843</v>
       </c>
       <c r="K1004">
-        <v>36381</v>
+        <v>36417</v>
       </c>
       <c r="L1004">
-        <v>41377</v>
+        <v>37403</v>
       </c>
       <c r="M1004">
-        <v>42090</v>
+        <v>41424</v>
       </c>
       <c r="N1004">
-        <v>42627</v>
+        <v>42673</v>
       </c>
       <c r="O1004">
-        <v>43197</v>
+        <v>43246</v>
       </c>
       <c r="P1004">
-        <v>45369</v>
+        <v>45415</v>
       </c>
       <c r="Q1004">
-        <v>51649</v>
+        <v>51691</v>
       </c>
       <c r="R1004">
-        <v>57757</v>
+        <v>57805</v>
       </c>
       <c r="S1004">
-        <v>63574</v>
+        <v>63628</v>
       </c>
       <c r="T1004">
-        <v>66725</v>
+        <v>66784</v>
       </c>
       <c r="U1004">
-        <v>70050</v>
+        <v>70114</v>
       </c>
       <c r="V1004">
-        <v>79865</v>
+        <v>79938</v>
       </c>
       <c r="W1004">
-        <v>95135</v>
+        <v>95207</v>
       </c>
       <c r="X1004">
-        <v>113036</v>
+        <v>113106</v>
       </c>
       <c r="Y1004">
-        <v>118192</v>
+        <v>118268</v>
       </c>
       <c r="Z1004">
-        <v>141527</v>
+        <v>141628</v>
       </c>
       <c r="AA1004">
-        <v>164970</v>
+        <v>165101</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8076,10 +8080,10 @@
         <v>351</v>
       </c>
       <c r="L1005">
+        <v>336</v>
+      </c>
+      <c r="M1005">
         <v>284</v>
-      </c>
-      <c r="M1005">
-        <v>276</v>
       </c>
       <c r="N1005">
         <v>270</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -49,10 +49,10 @@
     <t>Поликарпова Ирина</t>
   </si>
   <si>
-    <t>Кудрявцев Никита</t>
+    <t>Москвин Михаил</t>
   </si>
   <si>
-    <t>Москвин Михаил</t>
+    <t>Кудрявцев Никита</t>
   </si>
   <si>
     <t>Серебренникова Елена</t>
@@ -622,7 +622,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="N4" s="2"/>
       <c r="R4" s="2"/>
       <c r="U4" s="3"/>
@@ -682,7 +682,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9">
@@ -697,7 +697,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="N9" s="2"/>
       <c r="R9" s="2"/>
       <c r="U9" s="2"/>
@@ -789,7 +789,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -878,7 +878,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:25">
@@ -900,7 +900,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
       <c r="N26" s="2"/>
       <c r="R26" s="2"/>
       <c r="T26" s="2"/>
@@ -918,7 +918,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28">
@@ -977,7 +977,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
       <c r="N34" s="2"/>
       <c r="R34" s="2"/>
       <c r="T34" s="3"/>
@@ -1072,7 +1072,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:26">
       <c r="A45">
@@ -1085,6 +1085,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="J45" s="2"/>
+      <c r="K45" s="3"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:26">
@@ -1142,7 +1143,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:18">
       <c r="A53">
@@ -1155,7 +1156,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:18">
@@ -1202,7 +1203,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="L59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:18">
       <c r="A60">
@@ -1245,7 +1246,7 @@
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:18">
@@ -1258,21 +1259,21 @@
       <c r="E64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1283,14 +1284,14 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1298,16 +1299,16 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1315,35 +1316,35 @@
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1352,27 +1353,27 @@
       <c r="E76" s="3"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="D78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1381,7 +1382,7 @@
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:18">
       <c r="A81">
@@ -1400,7 +1401,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
       <c r="R82" s="2"/>
     </row>
     <row r="83" spans="1:18">
@@ -1469,7 +1470,7 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="L90" s="3"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91">
@@ -1497,7 +1498,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="1:18">
@@ -1653,7 +1654,7 @@
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:17">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1661,37 +1662,39 @@
       <c r="C113" s="2"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:17">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:17">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:17">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:17">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1699,7 +1702,7 @@
       <c r="C119" s="2"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:17">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1709,14 +1712,14 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:17">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:17">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1724,7 +1727,7 @@
       <c r="C122" s="2"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:17">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1732,12 +1735,12 @@
       <c r="C123" s="2"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:17">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:17">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1747,11 +1750,12 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="I125" s="2"/>
-      <c r="L125" s="2"/>
+      <c r="K125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="Q125" s="2"/>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1759,23 +1763,23 @@
       <c r="C126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="K126" s="2"/>
       <c r="M126" s="2"/>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:17">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="L127" s="2"/>
+      <c r="K127" s="2"/>
       <c r="M127" s="2"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:17">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1939,7 +1943,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
       <c r="N148" s="2"/>
       <c r="T148" s="2"/>
     </row>
@@ -1954,7 +1958,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="3"/>
-      <c r="L149" s="2"/>
+      <c r="K149" s="2"/>
       <c r="N149" s="2"/>
       <c r="R149" s="2"/>
     </row>
@@ -2027,7 +2031,7 @@
       <c r="C158" s="2"/>
       <c r="E158" s="3"/>
       <c r="I158" s="2"/>
-      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
     </row>
     <row r="159" spans="1:20">
       <c r="A159">
@@ -2285,7 +2289,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
-      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
       <c r="N196" s="2"/>
       <c r="R196" s="2"/>
       <c r="T196" s="2"/>
@@ -2528,7 +2532,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
-      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
       <c r="N234" s="3"/>
     </row>
     <row r="235" spans="1:14">
@@ -2731,7 +2735,7 @@
       <c r="E265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
-      <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
       <c r="T265" s="2"/>
     </row>
     <row r="266" spans="1:20">
@@ -2740,7 +2744,7 @@
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
-      <c r="L266" s="2"/>
+      <c r="K266" s="2"/>
     </row>
     <row r="267" spans="1:20">
       <c r="A267">
@@ -2755,7 +2759,7 @@
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
-      <c r="L268" s="3"/>
+      <c r="K268" s="3"/>
     </row>
     <row r="269" spans="1:20">
       <c r="A269">
@@ -2958,7 +2962,7 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
-      <c r="L294" s="2"/>
+      <c r="K294" s="2"/>
     </row>
     <row r="295" spans="1:13">
       <c r="A295">
@@ -3098,8 +3102,8 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
-      <c r="K313" s="3"/>
-      <c r="L313" s="2"/>
+      <c r="K313" s="2"/>
+      <c r="L313" s="3"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
@@ -3198,7 +3202,7 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
-      <c r="K325" s="2"/>
+      <c r="L325" s="2"/>
       <c r="T325" s="2"/>
     </row>
     <row r="326" spans="1:22">
@@ -3225,7 +3229,7 @@
       <c r="E328" s="2"/>
       <c r="G328" s="2"/>
       <c r="J328" s="2"/>
-      <c r="K328" s="3"/>
+      <c r="L328" s="3"/>
       <c r="M328" s="2"/>
     </row>
     <row r="329" spans="1:22">
@@ -3267,7 +3271,7 @@
       <c r="E332" s="2"/>
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
-      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
     </row>
     <row r="333" spans="1:22">
       <c r="A333">
@@ -3341,7 +3345,7 @@
       <c r="E341" s="2"/>
       <c r="G341" s="3"/>
       <c r="H341" s="2"/>
-      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
     </row>
     <row r="342" spans="1:14">
       <c r="A342">
@@ -3460,7 +3464,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
       <c r="G358" s="2"/>
-      <c r="K358" s="3"/>
+      <c r="L358" s="3"/>
       <c r="M358" s="2"/>
     </row>
     <row r="359" spans="1:13">
@@ -3631,7 +3635,7 @@
       <c r="C384" s="2"/>
       <c r="E384" s="2"/>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:11">
       <c r="A385">
         <v>384</v>
       </c>
@@ -3639,20 +3643,20 @@
       <c r="C385" s="2"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:11">
       <c r="A386">
         <v>385</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:11">
       <c r="A387">
         <v>386</v>
       </c>
       <c r="B387" s="2"/>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:11">
       <c r="A388">
         <v>387</v>
       </c>
@@ -3660,34 +3664,34 @@
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
-      <c r="L388" s="2"/>
-    </row>
-    <row r="389" spans="1:12">
+      <c r="K388" s="2"/>
+    </row>
+    <row r="389" spans="1:11">
       <c r="A389">
         <v>388</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:11">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:11">
       <c r="A391">
         <v>390</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:11">
       <c r="A392">
         <v>391</v>
       </c>
       <c r="B392" s="2"/>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:11">
       <c r="A393">
         <v>392</v>
       </c>
@@ -3695,13 +3699,13 @@
       <c r="C393" s="2"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:11">
       <c r="A394">
         <v>393</v>
       </c>
       <c r="B394" s="2"/>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:11">
       <c r="A395">
         <v>394</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="E395" s="2"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:11">
       <c r="A396">
         <v>395</v>
       </c>
@@ -3718,28 +3722,28 @@
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:11">
       <c r="A397">
         <v>396</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:11">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:11">
       <c r="A399">
         <v>398</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="I399" s="2"/>
-      <c r="L399" s="3"/>
-    </row>
-    <row r="400" spans="1:12">
+      <c r="K399" s="3"/>
+    </row>
+    <row r="400" spans="1:11">
       <c r="A400">
         <v>399</v>
       </c>
@@ -4115,6 +4119,7 @@
       <c r="A460">
         <v>459</v>
       </c>
+      <c r="B460" s="2"/>
     </row>
     <row r="461" spans="1:14">
       <c r="A461">
@@ -4343,7 +4348,7 @@
       <c r="C496" s="2"/>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:11">
       <c r="A497">
         <v>496</v>
       </c>
@@ -4353,19 +4358,19 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:11">
       <c r="A498">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:11">
       <c r="A499">
         <v>498</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:11">
       <c r="A500">
         <v>499</v>
       </c>
@@ -4373,32 +4378,32 @@
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:11">
       <c r="A501">
         <v>500</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:11">
       <c r="A502">
         <v>501</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:11">
       <c r="A503">
         <v>502</v>
       </c>
       <c r="B503" s="2"/>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:11">
       <c r="A504">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:11">
       <c r="A505">
         <v>504</v>
       </c>
@@ -4409,41 +4414,41 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:11">
       <c r="A506">
         <v>505</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:11">
       <c r="A507">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:11">
       <c r="A508">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:11">
       <c r="A509">
         <v>508</v>
       </c>
       <c r="B509" s="2"/>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:11">
       <c r="A510">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:11">
       <c r="A511">
         <v>510</v>
       </c>
       <c r="B511" s="2"/>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:11">
       <c r="A512">
         <v>511</v>
       </c>
@@ -4452,7 +4457,7 @@
       <c r="D512" s="2"/>
       <c r="E512" s="2"/>
       <c r="H512" s="2"/>
-      <c r="L512" s="3"/>
+      <c r="K512" s="2"/>
     </row>
     <row r="513" spans="1:22">
       <c r="A513">
@@ -4497,7 +4502,7 @@
       </c>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
-      <c r="L517" s="3"/>
+      <c r="K517" s="3"/>
     </row>
     <row r="518" spans="1:22">
       <c r="A518">
@@ -4549,7 +4554,7 @@
       </c>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
-      <c r="L524" s="3"/>
+      <c r="K524" s="3"/>
     </row>
     <row r="525" spans="1:22">
       <c r="A525">
@@ -4595,7 +4600,7 @@
       <c r="E530" s="2"/>
       <c r="G530" s="2"/>
       <c r="H530" s="2"/>
-      <c r="K530" s="3"/>
+      <c r="L530" s="3"/>
       <c r="N530" s="2"/>
     </row>
     <row r="531" spans="1:21">
@@ -4822,6 +4827,7 @@
       <c r="A563">
         <v>562</v>
       </c>
+      <c r="B563" s="2"/>
     </row>
     <row r="564" spans="1:6">
       <c r="A564">
@@ -5393,47 +5399,47 @@
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:12">
+    <row r="657" spans="1:11">
       <c r="A657">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:12">
+    <row r="658" spans="1:11">
       <c r="A658">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:12">
+    <row r="659" spans="1:11">
       <c r="A659">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:12">
+    <row r="660" spans="1:11">
       <c r="A660">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:12">
+    <row r="661" spans="1:11">
       <c r="A661">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:12">
+    <row r="662" spans="1:11">
       <c r="A662">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:12">
+    <row r="663" spans="1:11">
       <c r="A663">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:12">
+    <row r="664" spans="1:11">
       <c r="A664">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:12">
+    <row r="665" spans="1:11">
       <c r="A665">
         <v>664</v>
       </c>
@@ -5441,44 +5447,44 @@
       <c r="C665" s="2"/>
       <c r="E665" s="3"/>
     </row>
-    <row r="666" spans="1:12">
+    <row r="666" spans="1:11">
       <c r="A666">
         <v>665</v>
       </c>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
     </row>
-    <row r="667" spans="1:12">
+    <row r="667" spans="1:11">
       <c r="A667">
         <v>666</v>
       </c>
       <c r="B667" s="2"/>
       <c r="C667" s="3"/>
     </row>
-    <row r="668" spans="1:12">
+    <row r="668" spans="1:11">
       <c r="A668">
         <v>667</v>
       </c>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
       <c r="D668" s="3"/>
-      <c r="L668" s="3"/>
-    </row>
-    <row r="669" spans="1:12">
+      <c r="K668" s="3"/>
+    </row>
+    <row r="669" spans="1:11">
       <c r="A669">
         <v>668</v>
       </c>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
     </row>
-    <row r="670" spans="1:12">
+    <row r="670" spans="1:11">
       <c r="A670">
         <v>669</v>
       </c>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
     </row>
-    <row r="671" spans="1:12">
+    <row r="671" spans="1:11">
       <c r="A671">
         <v>670</v>
       </c>
@@ -5486,7 +5492,7 @@
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
     </row>
-    <row r="672" spans="1:12">
+    <row r="672" spans="1:11">
       <c r="A672">
         <v>671</v>
       </c>
@@ -5535,7 +5541,7 @@
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
       <c r="H678" s="3"/>
-      <c r="K678" s="3"/>
+      <c r="L678" s="3"/>
     </row>
     <row r="679" spans="1:12">
       <c r="A679">
@@ -5565,7 +5571,7 @@
       <c r="H681" s="2"/>
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
-      <c r="L681" s="2"/>
+      <c r="K681" s="2"/>
     </row>
     <row r="682" spans="1:12">
       <c r="A682">
@@ -5707,7 +5713,7 @@
       <c r="G698" s="2"/>
       <c r="H698" s="2"/>
       <c r="J698" s="2"/>
-      <c r="K698" s="2"/>
+      <c r="L698" s="2"/>
       <c r="R698" s="2"/>
       <c r="T698" s="2"/>
     </row>
@@ -5832,7 +5838,7 @@
       <c r="E716" s="2"/>
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
-      <c r="L716" s="2"/>
+      <c r="K716" s="2"/>
     </row>
     <row r="717" spans="1:13">
       <c r="A717">
@@ -6098,7 +6104,7 @@
       <c r="G758" s="2"/>
       <c r="H758" s="2"/>
       <c r="J758" s="3"/>
-      <c r="K758" s="3"/>
+      <c r="L758" s="3"/>
       <c r="N758" s="3"/>
       <c r="W758" s="2"/>
     </row>
@@ -6115,7 +6121,7 @@
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
       <c r="E760" s="2"/>
-      <c r="K760" s="3"/>
+      <c r="L760" s="3"/>
     </row>
     <row r="761" spans="1:26">
       <c r="A761">
@@ -6170,7 +6176,7 @@
       <c r="H767" s="2"/>
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
-      <c r="K767" s="2"/>
+      <c r="L767" s="2"/>
       <c r="N767" s="2"/>
       <c r="R767" s="2"/>
       <c r="T767" s="2"/>
@@ -6225,7 +6231,7 @@
       <c r="G774" s="2"/>
       <c r="H774" s="2"/>
       <c r="I774" s="2"/>
-      <c r="K774" s="2"/>
+      <c r="L774" s="2"/>
       <c r="N774" s="2"/>
       <c r="R774" s="2"/>
       <c r="T774" s="2"/>
@@ -6261,7 +6267,7 @@
       <c r="G778" s="2"/>
       <c r="H778" s="2"/>
       <c r="J778" s="2"/>
-      <c r="K778" s="2"/>
+      <c r="L778" s="2"/>
     </row>
     <row r="779" spans="1:24">
       <c r="A779">
@@ -6315,7 +6321,7 @@
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
       <c r="F785" s="2"/>
-      <c r="L785" s="2"/>
+      <c r="K785" s="2"/>
       <c r="P785" s="2"/>
     </row>
     <row r="786" spans="1:16">
@@ -6752,17 +6758,17 @@
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
     </row>
-    <row r="849" spans="1:11">
+    <row r="849" spans="1:12">
       <c r="A849">
         <v>848</v>
       </c>
     </row>
-    <row r="850" spans="1:11">
+    <row r="850" spans="1:12">
       <c r="A850">
         <v>849</v>
       </c>
     </row>
-    <row r="851" spans="1:11">
+    <row r="851" spans="1:12">
       <c r="A851">
         <v>850</v>
       </c>
@@ -6773,23 +6779,23 @@
       <c r="G851" s="2"/>
       <c r="H851" s="3"/>
     </row>
-    <row r="852" spans="1:11">
+    <row r="852" spans="1:12">
       <c r="A852">
         <v>851</v>
       </c>
       <c r="B852" s="2"/>
     </row>
-    <row r="853" spans="1:11">
+    <row r="853" spans="1:12">
       <c r="A853">
         <v>852</v>
       </c>
     </row>
-    <row r="854" spans="1:11">
+    <row r="854" spans="1:12">
       <c r="A854">
         <v>853</v>
       </c>
     </row>
-    <row r="855" spans="1:11">
+    <row r="855" spans="1:12">
       <c r="A855">
         <v>854</v>
       </c>
@@ -6800,31 +6806,31 @@
       <c r="G855" s="2"/>
       <c r="H855" s="2"/>
       <c r="J855" s="2"/>
-      <c r="K855" s="2"/>
-    </row>
-    <row r="856" spans="1:11">
+      <c r="L855" s="2"/>
+    </row>
+    <row r="856" spans="1:12">
       <c r="A856">
         <v>855</v>
       </c>
     </row>
-    <row r="857" spans="1:11">
+    <row r="857" spans="1:12">
       <c r="A857">
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:11">
+    <row r="858" spans="1:12">
       <c r="A858">
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:11">
+    <row r="859" spans="1:12">
       <c r="A859">
         <v>858</v>
       </c>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
     </row>
-    <row r="860" spans="1:11">
+    <row r="860" spans="1:12">
       <c r="A860">
         <v>859</v>
       </c>
@@ -6833,112 +6839,113 @@
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
     </row>
-    <row r="861" spans="1:11">
+    <row r="861" spans="1:12">
       <c r="A861">
         <v>860</v>
       </c>
     </row>
-    <row r="862" spans="1:11">
+    <row r="862" spans="1:12">
       <c r="A862">
         <v>861</v>
       </c>
     </row>
-    <row r="863" spans="1:11">
+    <row r="863" spans="1:12">
       <c r="A863">
         <v>862</v>
       </c>
     </row>
-    <row r="864" spans="1:11">
+    <row r="864" spans="1:12">
       <c r="A864">
         <v>863</v>
       </c>
     </row>
-    <row r="865" spans="1:12">
+    <row r="865" spans="1:16">
       <c r="A865">
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:12">
+    <row r="866" spans="1:16">
       <c r="A866">
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:12">
+    <row r="867" spans="1:16">
       <c r="A867">
         <v>866</v>
       </c>
     </row>
-    <row r="868" spans="1:12">
+    <row r="868" spans="1:16">
       <c r="A868">
         <v>867</v>
       </c>
       <c r="B868" s="2"/>
     </row>
-    <row r="869" spans="1:12">
+    <row r="869" spans="1:16">
       <c r="A869">
         <v>868</v>
       </c>
       <c r="B869" s="2"/>
     </row>
-    <row r="870" spans="1:12">
+    <row r="870" spans="1:16">
       <c r="A870">
         <v>869</v>
       </c>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
     </row>
-    <row r="871" spans="1:12">
+    <row r="871" spans="1:16">
       <c r="A871">
         <v>870</v>
       </c>
     </row>
-    <row r="872" spans="1:12">
+    <row r="872" spans="1:16">
       <c r="A872">
         <v>871</v>
       </c>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
-      <c r="L872" s="3"/>
-    </row>
-    <row r="873" spans="1:12">
+      <c r="K872" s="3"/>
+      <c r="P872" s="3"/>
+    </row>
+    <row r="873" spans="1:16">
       <c r="A873">
         <v>872</v>
       </c>
       <c r="B873" s="2"/>
     </row>
-    <row r="874" spans="1:12">
+    <row r="874" spans="1:16">
       <c r="A874">
         <v>873</v>
       </c>
     </row>
-    <row r="875" spans="1:12">
+    <row r="875" spans="1:16">
       <c r="A875">
         <v>874</v>
       </c>
       <c r="B875" s="2"/>
     </row>
-    <row r="876" spans="1:12">
+    <row r="876" spans="1:16">
       <c r="A876">
         <v>875</v>
       </c>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
     </row>
-    <row r="877" spans="1:12">
+    <row r="877" spans="1:16">
       <c r="A877">
         <v>876</v>
       </c>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
     </row>
-    <row r="878" spans="1:12">
+    <row r="878" spans="1:16">
       <c r="A878">
         <v>877</v>
       </c>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
     </row>
-    <row r="879" spans="1:12">
+    <row r="879" spans="1:16">
       <c r="A879">
         <v>878</v>
       </c>
@@ -6946,7 +6953,7 @@
       <c r="C879" s="2"/>
       <c r="D879" s="3"/>
     </row>
-    <row r="880" spans="1:12">
+    <row r="880" spans="1:16">
       <c r="A880">
         <v>879</v>
       </c>
@@ -6992,6 +6999,7 @@
       <c r="A888">
         <v>887</v>
       </c>
+      <c r="B888" s="2"/>
     </row>
     <row r="889" spans="1:23">
       <c r="A889">
@@ -7045,7 +7053,7 @@
       <c r="G894" s="2"/>
       <c r="H894" s="2"/>
       <c r="I894" s="2"/>
-      <c r="K894" s="2"/>
+      <c r="L894" s="2"/>
       <c r="N894" s="3"/>
       <c r="O894" s="2"/>
       <c r="P894" s="2"/>
@@ -7201,7 +7209,7 @@
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
     </row>
-    <row r="913" spans="1:10">
+    <row r="913" spans="1:11">
       <c r="A913">
         <v>912</v>
       </c>
@@ -7210,69 +7218,69 @@
       <c r="D913" s="2"/>
       <c r="E913" s="2"/>
     </row>
-    <row r="914" spans="1:10">
+    <row r="914" spans="1:11">
       <c r="A914">
         <v>913</v>
       </c>
       <c r="B914" s="2"/>
     </row>
-    <row r="915" spans="1:10">
+    <row r="915" spans="1:11">
       <c r="A915">
         <v>914</v>
       </c>
     </row>
-    <row r="916" spans="1:10">
+    <row r="916" spans="1:11">
       <c r="A916">
         <v>915</v>
       </c>
     </row>
-    <row r="917" spans="1:10">
+    <row r="917" spans="1:11">
       <c r="A917">
         <v>916</v>
       </c>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
     </row>
-    <row r="918" spans="1:10">
+    <row r="918" spans="1:11">
       <c r="A918">
         <v>917</v>
       </c>
     </row>
-    <row r="919" spans="1:10">
+    <row r="919" spans="1:11">
       <c r="A919">
         <v>918</v>
       </c>
     </row>
-    <row r="920" spans="1:10">
+    <row r="920" spans="1:11">
       <c r="A920">
         <v>919</v>
       </c>
     </row>
-    <row r="921" spans="1:10">
+    <row r="921" spans="1:11">
       <c r="A921">
         <v>920</v>
       </c>
     </row>
-    <row r="922" spans="1:10">
+    <row r="922" spans="1:11">
       <c r="A922">
         <v>921</v>
       </c>
     </row>
-    <row r="923" spans="1:10">
+    <row r="923" spans="1:11">
       <c r="A923">
         <v>922</v>
       </c>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
     </row>
-    <row r="924" spans="1:10">
+    <row r="924" spans="1:11">
       <c r="A924">
         <v>923</v>
       </c>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
     </row>
-    <row r="925" spans="1:10">
+    <row r="925" spans="1:11">
       <c r="A925">
         <v>924</v>
       </c>
@@ -7281,8 +7289,9 @@
       <c r="D925" s="2"/>
       <c r="E925" s="2"/>
       <c r="J925" s="3"/>
-    </row>
-    <row r="926" spans="1:10">
+      <c r="K925" s="2"/>
+    </row>
+    <row r="926" spans="1:11">
       <c r="A926">
         <v>925</v>
       </c>
@@ -7291,7 +7300,7 @@
       <c r="D926" s="2"/>
       <c r="E926" s="2"/>
     </row>
-    <row r="927" spans="1:10">
+    <row r="927" spans="1:11">
       <c r="A927">
         <v>926</v>
       </c>
@@ -7299,7 +7308,7 @@
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
     </row>
-    <row r="928" spans="1:10">
+    <row r="928" spans="1:11">
       <c r="A928">
         <v>927</v>
       </c>
@@ -7347,7 +7356,7 @@
       <c r="E934" s="2"/>
       <c r="G934" s="2"/>
       <c r="H934" s="2"/>
-      <c r="K934" s="2"/>
+      <c r="L934" s="2"/>
     </row>
     <row r="935" spans="1:24">
       <c r="A935">
@@ -7362,7 +7371,7 @@
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
       <c r="E936" s="2"/>
-      <c r="K936" s="2"/>
+      <c r="L936" s="2"/>
     </row>
     <row r="937" spans="1:24">
       <c r="A937">
@@ -7397,7 +7406,7 @@
       <c r="E941" s="2"/>
       <c r="G941" s="2"/>
       <c r="H941" s="2"/>
-      <c r="K941" s="2"/>
+      <c r="L941" s="2"/>
     </row>
     <row r="942" spans="1:24">
       <c r="A942">
@@ -7418,7 +7427,7 @@
       <c r="G943" s="2"/>
       <c r="H943" s="2"/>
       <c r="I943" s="2"/>
-      <c r="L943" s="2"/>
+      <c r="K943" s="2"/>
       <c r="R943" s="2"/>
       <c r="X943" s="2"/>
     </row>
@@ -7801,7 +7810,7 @@
         <v>27</v>
       </c>
       <c r="B1002">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C1002">
         <v>524</v>
@@ -7828,10 +7837,10 @@
         <v>27</v>
       </c>
       <c r="K1002">
+        <v>21</v>
+      </c>
+      <c r="L1002">
         <v>31</v>
-      </c>
-      <c r="L1002">
-        <v>19</v>
       </c>
       <c r="M1002">
         <v>15</v>
@@ -7846,7 +7855,7 @@
         <v>10</v>
       </c>
       <c r="Q1002">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R1002">
         <v>24</v>
@@ -7911,10 +7920,10 @@
         <v>14</v>
       </c>
       <c r="K1003">
+        <v>9</v>
+      </c>
+      <c r="L1003">
         <v>14</v>
-      </c>
-      <c r="L1003">
-        <v>9</v>
       </c>
       <c r="M1003">
         <v>2</v>
@@ -7926,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="P1003">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q1003">
         <v>0</v>
@@ -7967,7 +7976,7 @@
         <v>29</v>
       </c>
       <c r="B1004">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C1004">
         <v>286</v>
@@ -7976,73 +7985,73 @@
         <v>4246</v>
       </c>
       <c r="E1004">
-        <v>4594</v>
+        <v>4598</v>
       </c>
       <c r="F1004">
-        <v>7126</v>
+        <v>7129</v>
       </c>
       <c r="G1004">
-        <v>14275</v>
+        <v>14282</v>
       </c>
       <c r="H1004">
-        <v>14732</v>
+        <v>14736</v>
       </c>
       <c r="I1004">
-        <v>22182</v>
+        <v>22192</v>
       </c>
       <c r="J1004">
-        <v>31843</v>
+        <v>31861</v>
       </c>
       <c r="K1004">
-        <v>36417</v>
+        <v>34822</v>
       </c>
       <c r="L1004">
-        <v>37403</v>
+        <v>36437</v>
       </c>
       <c r="M1004">
-        <v>41424</v>
+        <v>41441</v>
       </c>
       <c r="N1004">
-        <v>42673</v>
+        <v>42691</v>
       </c>
       <c r="O1004">
-        <v>43246</v>
+        <v>43265</v>
       </c>
       <c r="P1004">
-        <v>45415</v>
+        <v>45431</v>
       </c>
       <c r="Q1004">
-        <v>51691</v>
+        <v>48392</v>
       </c>
       <c r="R1004">
-        <v>57805</v>
+        <v>57822</v>
       </c>
       <c r="S1004">
-        <v>63628</v>
+        <v>63654</v>
       </c>
       <c r="T1004">
-        <v>66784</v>
+        <v>66806</v>
       </c>
       <c r="U1004">
-        <v>70114</v>
+        <v>70133</v>
       </c>
       <c r="V1004">
-        <v>79938</v>
+        <v>79959</v>
       </c>
       <c r="W1004">
-        <v>95207</v>
+        <v>95235</v>
       </c>
       <c r="X1004">
-        <v>113106</v>
+        <v>113145</v>
       </c>
       <c r="Y1004">
-        <v>118268</v>
+        <v>118314</v>
       </c>
       <c r="Z1004">
-        <v>141628</v>
+        <v>141683</v>
       </c>
       <c r="AA1004">
-        <v>165101</v>
+        <v>165180</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8050,7 +8059,7 @@
         <v>30</v>
       </c>
       <c r="B1005">
-        <v>22179</v>
+        <v>22428</v>
       </c>
       <c r="C1005">
         <v>15620</v>
@@ -8077,10 +8086,10 @@
         <v>429</v>
       </c>
       <c r="K1005">
+        <v>376</v>
+      </c>
+      <c r="L1005">
         <v>351</v>
-      </c>
-      <c r="L1005">
-        <v>336</v>
       </c>
       <c r="M1005">
         <v>284</v>
@@ -8095,7 +8104,7 @@
         <v>243</v>
       </c>
       <c r="Q1005">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="R1005">
         <v>153</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1540,6 +1540,7 @@
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:26">
       <c r="A99">
@@ -2385,6 +2386,7 @@
       <c r="A210">
         <v>209</v>
       </c>
+      <c r="B210" s="2"/>
       <c r="C210" s="2"/>
     </row>
     <row r="211" spans="1:6">
@@ -2436,6 +2438,7 @@
       <c r="A218">
         <v>217</v>
       </c>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
@@ -3572,6 +3575,7 @@
       <c r="A374">
         <v>373</v>
       </c>
+      <c r="B374" s="2"/>
     </row>
     <row r="375" spans="1:8">
       <c r="A375">
@@ -4237,6 +4241,7 @@
       <c r="A478">
         <v>477</v>
       </c>
+      <c r="B478" s="2"/>
     </row>
     <row r="479" spans="1:6">
       <c r="A479">
@@ -4269,6 +4274,7 @@
       <c r="A484">
         <v>483</v>
       </c>
+      <c r="B484" s="2"/>
     </row>
     <row r="485" spans="1:6">
       <c r="A485">
@@ -5701,6 +5707,7 @@
       <c r="A697">
         <v>696</v>
       </c>
+      <c r="B697" s="2"/>
     </row>
     <row r="698" spans="1:20">
       <c r="A698">
@@ -5924,6 +5931,7 @@
       <c r="A731">
         <v>730</v>
       </c>
+      <c r="B731" s="2"/>
     </row>
     <row r="732" spans="1:3">
       <c r="A732">
@@ -6162,6 +6170,7 @@
       <c r="A766">
         <v>765</v>
       </c>
+      <c r="B766" s="2"/>
     </row>
     <row r="767" spans="1:26">
       <c r="A767">
@@ -6313,6 +6322,7 @@
       <c r="A784">
         <v>783</v>
       </c>
+      <c r="B784" s="2"/>
     </row>
     <row r="785" spans="1:16">
       <c r="A785">
@@ -7810,7 +7820,7 @@
         <v>27</v>
       </c>
       <c r="B1002">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="C1002">
         <v>524</v>
@@ -7976,82 +7986,82 @@
         <v>29</v>
       </c>
       <c r="B1004">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1004">
         <v>286</v>
       </c>
       <c r="D1004">
-        <v>4246</v>
+        <v>4251</v>
       </c>
       <c r="E1004">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="F1004">
-        <v>7129</v>
+        <v>7140</v>
       </c>
       <c r="G1004">
-        <v>14282</v>
+        <v>14303</v>
       </c>
       <c r="H1004">
-        <v>14736</v>
+        <v>14753</v>
       </c>
       <c r="I1004">
-        <v>22192</v>
+        <v>22219</v>
       </c>
       <c r="J1004">
-        <v>31861</v>
+        <v>31888</v>
       </c>
       <c r="K1004">
-        <v>34822</v>
+        <v>34849</v>
       </c>
       <c r="L1004">
-        <v>36437</v>
+        <v>36461</v>
       </c>
       <c r="M1004">
-        <v>41441</v>
+        <v>41475</v>
       </c>
       <c r="N1004">
-        <v>42691</v>
+        <v>42733</v>
       </c>
       <c r="O1004">
-        <v>43265</v>
+        <v>43309</v>
       </c>
       <c r="P1004">
-        <v>45431</v>
+        <v>45474</v>
       </c>
       <c r="Q1004">
-        <v>48392</v>
+        <v>48440</v>
       </c>
       <c r="R1004">
-        <v>57822</v>
+        <v>57884</v>
       </c>
       <c r="S1004">
-        <v>63654</v>
+        <v>63723</v>
       </c>
       <c r="T1004">
-        <v>66806</v>
+        <v>66881</v>
       </c>
       <c r="U1004">
-        <v>70133</v>
+        <v>70217</v>
       </c>
       <c r="V1004">
-        <v>79959</v>
+        <v>80048</v>
       </c>
       <c r="W1004">
-        <v>95235</v>
+        <v>95329</v>
       </c>
       <c r="X1004">
-        <v>113145</v>
+        <v>113265</v>
       </c>
       <c r="Y1004">
-        <v>118314</v>
+        <v>118438</v>
       </c>
       <c r="Z1004">
-        <v>141683</v>
+        <v>141839</v>
       </c>
       <c r="AA1004">
-        <v>165180</v>
+        <v>165389</v>
       </c>
     </row>
     <row r="1005" spans="1:27">
@@ -8059,7 +8069,7 @@
         <v>30</v>
       </c>
       <c r="B1005">
-        <v>22428</v>
+        <v>22938</v>
       </c>
       <c r="C1005">
         <v>15620</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7416" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="2050">
   <si>
     <t>№</t>
   </si>
@@ -6736,10 +6736,10 @@
         <v>69</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>86</v>
@@ -6751,73 +6751,73 @@
         <v>4503</v>
       </c>
       <c r="H3">
-        <v>4862</v>
+        <v>4864</v>
       </c>
       <c r="I3">
-        <v>7469</v>
+        <v>7470</v>
       </c>
       <c r="J3">
-        <v>15326</v>
+        <v>15325</v>
       </c>
       <c r="K3">
-        <v>15746</v>
+        <v>15747</v>
       </c>
       <c r="L3">
-        <v>24040</v>
+        <v>24045</v>
       </c>
       <c r="M3">
-        <v>34164</v>
+        <v>34170</v>
       </c>
       <c r="N3">
-        <v>37328</v>
+        <v>37337</v>
       </c>
       <c r="O3">
-        <v>39031</v>
+        <v>39041</v>
       </c>
       <c r="P3">
-        <v>44439</v>
+        <v>44453</v>
       </c>
       <c r="Q3">
-        <v>45771</v>
+        <v>45785</v>
       </c>
       <c r="R3">
-        <v>46388</v>
+        <v>46400</v>
       </c>
       <c r="S3">
-        <v>48716</v>
+        <v>48725</v>
       </c>
       <c r="T3">
-        <v>51889</v>
+        <v>51904</v>
       </c>
       <c r="U3">
-        <v>62040</v>
+        <v>62056</v>
       </c>
       <c r="V3">
-        <v>68281</v>
+        <v>68302</v>
       </c>
       <c r="W3">
-        <v>71654</v>
+        <v>71678</v>
       </c>
       <c r="X3">
-        <v>75223</v>
+        <v>75245</v>
       </c>
       <c r="Y3">
-        <v>85594</v>
+        <v>85613</v>
       </c>
       <c r="Z3">
-        <v>101788</v>
+        <v>101811</v>
       </c>
       <c r="AA3">
-        <v>121003</v>
+        <v>121033</v>
       </c>
       <c r="AB3">
-        <v>126263</v>
+        <v>126295</v>
       </c>
       <c r="AC3">
-        <v>151574</v>
+        <v>151614</v>
       </c>
       <c r="AD3">
-        <v>177153</v>
+        <v>177203</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6831,7 +6831,7 @@
         <v>24104</v>
       </c>
       <c r="D4">
-        <v>23705</v>
+        <v>23967</v>
       </c>
       <c r="E4">
         <v>23698</v>
@@ -6923,7 +6923,7 @@
         <v>2941</v>
       </c>
       <c r="D5">
-        <v>1600</v>
+        <v>1674</v>
       </c>
       <c r="E5">
         <v>2736</v>
@@ -7015,7 +7015,7 @@
         <v>585</v>
       </c>
       <c r="D6">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="E6">
         <v>656</v>
@@ -7107,7 +7107,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>22</v>
@@ -7199,7 +7199,7 @@
         <v>830</v>
       </c>
       <c r="D8">
-        <v>864</v>
+        <v>918</v>
       </c>
       <c r="E8">
         <v>871</v>
@@ -7291,7 +7291,7 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>36</v>
@@ -15504,6 +15504,9 @@
       <c r="C375" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="D375" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E375" s="3" t="s">
         <v>535</v>
       </c>
@@ -16145,8 +16148,8 @@
       <c r="A415" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="D415" s="4" t="s">
-        <v>100</v>
+      <c r="D415" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -16764,8 +16767,8 @@
       <c r="C459" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D459" s="4" t="s">
-        <v>100</v>
+      <c r="D459" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E459" s="3" t="s">
         <v>89</v>
@@ -17330,6 +17333,9 @@
       <c r="C496" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D496" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E496" s="3" t="s">
         <v>79</v>
       </c>
@@ -17437,8 +17443,8 @@
       <c r="C503" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D503" s="4" t="s">
-        <v>93</v>
+      <c r="D503" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>351</v>
@@ -21471,7 +21477,7 @@
         <v>946</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="D769" s="3" t="s">
         <v>88</v>
@@ -23766,7 +23772,7 @@
         <v>1093</v>
       </c>
       <c r="D913" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E913" s="3" t="s">
         <v>88</v>
@@ -25334,6 +25340,9 @@
       <c r="C1018" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1018" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1018" s="3" t="s">
         <v>74</v>
       </c>
@@ -25387,6 +25396,9 @@
       <c r="B1025" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1025" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1025" s="3" t="s">
         <v>79</v>
       </c>
@@ -26037,6 +26049,9 @@
       <c r="C1101" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="D1101" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1102" spans="1:11">
       <c r="A1102" s="2" t="s">
@@ -26858,6 +26873,9 @@
       <c r="C1147" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1147" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1147" s="3" t="s">
         <v>74</v>
       </c>
@@ -26872,6 +26890,9 @@
       <c r="C1148" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1148" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1148" s="3" t="s">
         <v>74</v>
       </c>
@@ -26903,6 +26924,9 @@
       <c r="C1150" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1150" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1150" s="3" t="s">
         <v>76</v>
       </c>
@@ -26917,6 +26941,9 @@
       <c r="C1151" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="D1151" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1151" s="3" t="s">
         <v>81</v>
       </c>
@@ -26931,6 +26958,9 @@
       <c r="C1152" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1152" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1152" s="3" t="s">
         <v>79</v>
       </c>
@@ -26948,6 +26978,9 @@
       <c r="C1153" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="D1153" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1153" s="3" t="s">
         <v>110</v>
       </c>
@@ -26962,6 +26995,9 @@
       <c r="C1154" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1154" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1154" s="3" t="s">
         <v>74</v>
       </c>
@@ -26976,6 +27012,9 @@
       <c r="C1155" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="D1155" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1155" s="3" t="s">
         <v>70</v>
       </c>
@@ -26996,6 +27035,9 @@
       <c r="C1156" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1156" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1156" s="3" t="s">
         <v>99</v>
       </c>
@@ -27016,6 +27058,9 @@
       <c r="C1157" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="D1157" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1157" s="3" t="s">
         <v>83</v>
       </c>
@@ -27062,6 +27107,9 @@
       <c r="C1159" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1159" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1159" s="3" t="s">
         <v>74</v>
       </c>
@@ -27085,6 +27133,9 @@
       <c r="C1160" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1160" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1160" s="3" t="s">
         <v>85</v>
       </c>
@@ -27102,6 +27153,9 @@
       <c r="C1161" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1161" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1161" s="3" t="s">
         <v>79</v>
       </c>
@@ -27122,6 +27176,9 @@
       <c r="C1162" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1162" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E1162" s="3" t="s">
         <v>79</v>
       </c>
@@ -27626,6 +27683,9 @@
       <c r="C1207" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1207" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1207" s="3" t="s">
         <v>91</v>
       </c>
@@ -27648,6 +27708,9 @@
       <c r="C1209" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1209" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1209" s="3" t="s">
         <v>79</v>
       </c>
@@ -27820,6 +27883,9 @@
       <c r="C1223" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1223" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1223" s="3" t="s">
         <v>113</v>
       </c>
@@ -27837,6 +27903,9 @@
       <c r="B1224" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1224" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E1224" s="3" t="s">
         <v>109</v>
       </c>
@@ -27854,6 +27923,9 @@
       <c r="C1225" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1225" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1225" s="3" t="s">
         <v>109</v>
       </c>
@@ -27874,6 +27946,9 @@
       <c r="C1226" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1226" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1226" s="3" t="s">
         <v>74</v>
       </c>
@@ -27888,6 +27963,9 @@
       <c r="B1227" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1227" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1227" s="3" t="s">
         <v>97</v>
       </c>
@@ -27902,6 +27980,9 @@
       <c r="B1228" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1228" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1228" s="3" t="s">
         <v>77</v>
       </c>
@@ -27916,6 +27997,9 @@
       <c r="B1229" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1229" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1229" s="3" t="s">
         <v>89</v>
       </c>
@@ -27933,6 +28017,9 @@
       <c r="C1230" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1230" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1230" s="3" t="s">
         <v>88</v>
       </c>
@@ -27947,6 +28034,9 @@
       <c r="C1231" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1231" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1231" s="3" t="s">
         <v>79</v>
       </c>
@@ -27961,6 +28051,9 @@
       <c r="C1232" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="D1232" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E1232" s="3" t="s">
         <v>88</v>
       </c>
@@ -27969,6 +28062,9 @@
       <c r="A1233" s="2" t="s">
         <v>1429</v>
       </c>
+      <c r="D1233" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1233" s="3" t="s">
         <v>88</v>
       </c>
@@ -27983,6 +28079,9 @@
       <c r="C1234" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1234" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1234" s="3" t="s">
         <v>74</v>
       </c>
@@ -28000,6 +28099,9 @@
       <c r="C1235" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1235" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1235" s="3" t="s">
         <v>74</v>
       </c>
@@ -28017,6 +28119,9 @@
       <c r="C1236" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1236" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1236" s="3" t="s">
         <v>74</v>
       </c>
@@ -28034,6 +28139,9 @@
       <c r="C1237" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1237" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1237" s="3" t="s">
         <v>109</v>
       </c>
@@ -28051,6 +28159,9 @@
       <c r="C1238" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1238" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1238" s="3" t="s">
         <v>89</v>
       </c>
@@ -28132,6 +28243,9 @@
       <c r="B1244" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1244" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1244" s="3" t="s">
         <v>74</v>
       </c>
@@ -28143,6 +28257,9 @@
       <c r="B1245" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1245" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1245" s="3" t="s">
         <v>74</v>
       </c>
@@ -28154,6 +28271,9 @@
       <c r="B1246" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1246" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1246" s="3" t="s">
         <v>74</v>
       </c>
@@ -28165,6 +28285,9 @@
       <c r="B1247" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1247" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1247" s="3" t="s">
         <v>89</v>
       </c>
@@ -28538,6 +28661,9 @@
       <c r="C1291" s="4" t="s">
         <v>148</v>
       </c>
+      <c r="D1291" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E1291" s="3" t="s">
         <v>113</v>
       </c>
@@ -28649,6 +28775,9 @@
       <c r="C1306" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1306" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E1306" s="3" t="s">
         <v>76</v>
       </c>
@@ -28815,6 +28944,9 @@
       <c r="C1326" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1326" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1326" s="3" t="s">
         <v>74</v>
       </c>
@@ -29135,6 +29267,9 @@
       <c r="C1369" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="D1369" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1369" s="3" t="s">
         <v>72</v>
       </c>
@@ -29586,6 +29721,9 @@
       <c r="C1413" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1413" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1413" s="3" t="s">
         <v>79</v>
       </c>
@@ -30168,6 +30306,9 @@
       <c r="C1479" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="D1479" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1479" s="4" t="s">
         <v>100</v>
       </c>
@@ -30275,6 +30416,9 @@
       <c r="C1489" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1489" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E1489" s="3" t="s">
         <v>74</v>
       </c>
@@ -30436,8 +30580,8 @@
       <c r="A1508" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="D1508" s="4" t="s">
-        <v>100</v>
+      <c r="D1508" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E1508" s="3" t="s">
         <v>74</v>
@@ -31016,6 +31160,9 @@
       <c r="A1591" s="2" t="s">
         <v>1789</v>
       </c>
+      <c r="D1591" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="1592" spans="1:17">
       <c r="A1592" s="2" t="s">
@@ -31120,8 +31267,8 @@
       <c r="C1604" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D1604" s="4" t="s">
-        <v>148</v>
+      <c r="D1604" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="1605" spans="1:9">
@@ -32416,7 +32563,7 @@
         <v>1965</v>
       </c>
       <c r="D1767" s="4" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1768" spans="1:12">
